--- a/biology/Zoologie/Aradidae/Aradidae.xlsx
+++ b/biology/Zoologie/Aradidae/Aradidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aradidae sont une famille d'insectes hémiptères hétéroptères (punaises) cosmopolite, qui comprend plus de 2 000 espèces.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces punaises ont le corps aplati (d'où leur nom vernaculaire anglais de flat bug, « punaises plates »), elliptique, ovale ou rectangulaire, de couleur terne, cryptique, aux téguments souvent granuleux ou rugueux, avec parfois des incrustations. Leur antennes, pattes et rostre souvent plutôt courts, et avec de nombreuses espèces sont aptères. Elles mesurent de 3 à 20 mm de long. Les antennes, robustes, ont 4 articles, de même que le rostre. Les stylets mandibulaires maxillaires sont extrêmement longs et enroulés dans la tête. Les trochanters sont souvent fusionnés avec les fémurs. Les tarses ne comptent que 2 articles, le premier plus court que le second[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces punaises ont le corps aplati (d'où leur nom vernaculaire anglais de flat bug, « punaises plates »), elliptique, ovale ou rectangulaire, de couleur terne, cryptique, aux téguments souvent granuleux ou rugueux, avec parfois des incrustations. Leur antennes, pattes et rostre souvent plutôt courts, et avec de nombreuses espèces sont aptères. Elles mesurent de 3 à 20 mm de long. Les antennes, robustes, ont 4 articles, de même que le rostre. Les stylets mandibulaires maxillaires sont extrêmement longs et enroulés dans la tête. Les trochanters sont souvent fusionnés avec les fémurs. Les tarses ne comptent que 2 articles, le premier plus court que le second,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des Aradidae semblent mycophages, c'est-à-dire se nourrissant de champignons, mais on connaît mal leur biologie. Quelques groupes sont phytophages : les Aneurinae et les Calisiinae se nourrissent de sève d'arbres vivants ou mourants, et l'espèce Aradus cinnamomeus se nourrit du phloème, du cambium et du xylème de plantes hôtes, par exemple Pinus et Larix spp., provoquant des retards de croissance. Certaines espèces vivent avec des termites. C'est le cas de six espèces australiennes, dont Aspisocoris termitaphilus, et d'une espèce nord-américaine, Mezira reducta, qui vit dans les nids de Zootermapsis nevadensis. En cela, elles sont proches des Termitaphididae, l'autre famille des Aradoidea[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des Aradidae semblent mycophages, c'est-à-dire se nourrissant de champignons, mais on connaît mal leur biologie. Quelques groupes sont phytophages : les Aneurinae et les Calisiinae se nourrissent de sève d'arbres vivants ou mourants, et l'espèce Aradus cinnamomeus se nourrit du phloème, du cambium et du xylème de plantes hôtes, par exemple Pinus et Larix spp., provoquant des retards de croissance. Certaines espèces vivent avec des termites. C'est le cas de six espèces australiennes, dont Aspisocoris termitaphilus, et d'une espèce nord-américaine, Mezira reducta, qui vit dans les nids de Zootermapsis nevadensis. En cela, elles sont proches des Termitaphididae, l'autre famille des Aradoidea.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est cosmopolite, notamment pour 5 des 8 sous-familles. Trois sous-familles sont restreintes à l'arc Australie-Nouvelle-Zélande-Amérique du Sud. Les zones indomalaises et pacifiques concentrent près d'un tiers de toutes les espèces. On en trouve même 200 pour la seule Nouvelle-Guinée[3],[4].
-On les rencontre principalement sous l'écorce d'arbres en décomposition (d'où leur autre nom commun anglais de « bark bugs », « punaises des écorces »), ou dans la litière de la forêt tropicale[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est cosmopolite, notamment pour 5 des 8 sous-familles. Trois sous-familles sont restreintes à l'arc Australie-Nouvelle-Zélande-Amérique du Sud. Les zones indomalaises et pacifiques concentrent près d'un tiers de toutes les espèces. On en trouve même 200 pour la seule Nouvelle-Guinée,.
+On les rencontre principalement sous l'écorce d'arbres en décomposition (d'où leur autre nom commun anglais de « bark bugs », « punaises des écorces »), ou dans la litière de la forêt tropicale. 
 </t>
         </is>
       </c>
@@ -605,11 +623,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières espèces d'Aradidae ont été décrites au XVIIe siècle, déjà par Linné, mais le premier genre propre, Aradus, genre-type de la famille, a été établi par Fabricius en 1803. Les premiers regroupements ont été proposés par Brullé, puis par Spinola qui en fait une famille en 1837, les « Aradites ». Amyot et Serville les traitent comme une tribu, les « Corticolae » (ou « habitants des écorces », en lien avec leur biologie). Amyot et Serville (1843), puis Stål (1873) définissent les premières sous-familles et plusieurs nouveaux genres. Un grand pas en avant est réalisé lorsque Miller comprend que les individus sans ailes ne sont pas des juvéniles, mais bien des adultes aptères. La classification a ensuite été surtout établie par Usinger et Matsuda (1959)[5], Kormilev et Froeschner (1987)[6], ainsi que Coscarón et Contreras (2012)[7] pour la zone néotropicale, Ernst Heiss pour le Paléarctique (2001) et Madagascar (2012)[3].
-Sous-familles reconnues
-Aneurinae : 8 genres et plus de 140 espèces, répandue dans toutes les régions.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières espèces d'Aradidae ont été décrites au XVIIe siècle, déjà par Linné, mais le premier genre propre, Aradus, genre-type de la famille, a été établi par Fabricius en 1803. Les premiers regroupements ont été proposés par Brullé, puis par Spinola qui en fait une famille en 1837, les « Aradites ». Amyot et Serville les traitent comme une tribu, les « Corticolae » (ou « habitants des écorces », en lien avec leur biologie). Amyot et Serville (1843), puis Stål (1873) définissent les premières sous-familles et plusieurs nouveaux genres. Un grand pas en avant est réalisé lorsque Miller comprend que les individus sans ailes ne sont pas des juvéniles, mais bien des adultes aptères. La classification a ensuite été surtout établie par Usinger et Matsuda (1959), Kormilev et Froeschner (1987), ainsi que Coscarón et Contreras (2012) pour la zone néotropicale, Ernst Heiss pour le Paléarctique (2001) et Madagascar (2012).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aradidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aradidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-familles reconnues</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aneurinae : 8 genres et plus de 140 espèces, répandue dans toutes les régions.
 Aradinae : 4 genres et près de 235 espèces.
 Calisiinae : 9 genres et plus de 100 espèces.
 Carventinae : 95 genres et 300 espèces.
@@ -628,16 +683,122 @@
 			Calisiinae : Calisius zealandicus, Nouvelle-Zélande
 			Juvénile, ici Aneurus avenius
 			Vue ventrale de Brachyrhynchus membranaceus (Mezirinae), montrant le rostre court.
-Les sous-familles Aneurinae et Mezirinae se sont vu accorder le statut de famille par certains auteurs, ce que les études phylogénétiques ne semblent pas justifier. Les deux tribus des Chinamyersinae, Chinamyersini, et Tretocorini, pourraient être élevées au rang de sous-famille, selon les recherches de Marchal et Guilbert (2016)[8], qui estiment également que les Isodeminae font partie des Prosympiestinae. Les Mezirinae sont le groupe le plus diversifié, avec plus de la moitié des genres et des espèces de la famille[3].
-Au niveau supérieur, les Aradidae font partie, conjointement avec les Termitaphididae (dont ils se distinguent par la présence d'yeux composés notamment, qui ont disparu chez ces derniers), de la super-famille des Aradoidea, le groupe se situant à la base des Pentatomomorpha[3].
-Phylogénie
-La famille des Aradidae s'est avérée monophylétique de manière consistante dans les analyses comme celles de Grebennikov et Heiss (2014)[9]. Il se pourrait qu'elle inclue les Termitaphididae, étant paraphylétique à leur égard. Les Aradinae sont le groupe frère des autres Aradidae.
-Fossiles
-De nombreux fossiles (plus de 50 espèces) ont été découverts dans les sous-familles existantes Aneurinae (genre Aneurus), Aradinae (genres actuels Aradus et Quilnus, avec 24 espèces fossiles rien que pour le premier), Calisiinae (genres actuels Calisius et Calisiopisis, et genres fossiles Allocalisius, et Archecalisius), Carventinae (genres actuels Acaricoris, Carventus et Neoproxus, et un genre fossile, Proneoproxus) et Mezirinae (quatre genres, dont deux actuels, Mezira et Neroctenus), ainsi que pour une sous-famille fossile, les Archearadinae, et 5 genres fossiles sans sous-famille associée. Le plus ancien remonte à l'Aptien (Crétacé inférieur, -125 à −113 millions d'années)[10].
+Les sous-familles Aneurinae et Mezirinae se sont vu accorder le statut de famille par certains auteurs, ce que les études phylogénétiques ne semblent pas justifier. Les deux tribus des Chinamyersinae, Chinamyersini, et Tretocorini, pourraient être élevées au rang de sous-famille, selon les recherches de Marchal et Guilbert (2016), qui estiment également que les Isodeminae font partie des Prosympiestinae. Les Mezirinae sont le groupe le plus diversifié, avec plus de la moitié des genres et des espèces de la famille.
+Au niveau supérieur, les Aradidae font partie, conjointement avec les Termitaphididae (dont ils se distinguent par la présence d'yeux composés notamment, qui ont disparu chez ces derniers), de la super-famille des Aradoidea, le groupe se situant à la base des Pentatomomorpha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aradidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aradidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Aradidae s'est avérée monophylétique de manière consistante dans les analyses comme celles de Grebennikov et Heiss (2014). Il se pourrait qu'elle inclue les Termitaphididae, étant paraphylétique à leur égard. Les Aradinae sont le groupe frère des autres Aradidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aradidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aradidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+De nombreux fossiles (plus de 50 espèces) ont été découverts dans les sous-familles existantes Aneurinae (genre Aneurus), Aradinae (genres actuels Aradus et Quilnus, avec 24 espèces fossiles rien que pour le premier), Calisiinae (genres actuels Calisius et Calisiopisis, et genres fossiles Allocalisius, et Archecalisius), Carventinae (genres actuels Acaricoris, Carventus et Neoproxus, et un genre fossile, Proneoproxus) et Mezirinae (quatre genres, dont deux actuels, Mezira et Neroctenus), ainsi que pour une sous-famille fossile, les Archearadinae, et 5 genres fossiles sans sous-famille associée. Le plus ancien remonte à l'Aptien (Crétacé inférieur, -125 à −113 millions d'années).
 			Fossile d'Aradus macrosomus, retrouvé dans de l'ambre de la Baltique (Priabonien, -38 à -33 millions d'années)
 			Fossile d'Aradus andancensis, (Turolien, -9 à -5.3 millions d'années), Ardèche, France
-Liste des sous-familles, tribus et genres
-Selon BioLib                    (22 juin 2022)[11] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aradidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aradidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles, tribus et genres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (22 juin 2022) :
 sous-famille Aneurinae Douglas &amp; Scott, 1865
 genre Aneuraptera Usinger &amp; Matsuda, 1959
 genre Aneurillodes Heiss, 1999
